--- a/新闻股票跟踪.xlsx
+++ b/新闻股票跟踪.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,44 +491,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>中证A500ETF系列产品整体表现不佳，多数产品成交额低迷，规模和份额大幅下滑，仅少数产品如华泰柏瑞、嘉实和东财旗下中证A500ETF实现增长。</t>
+          <t>亚马逊推出AI编程智能体应用Kiro，提升AI编程的可用性和开发效率。</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.cls.cn/detail/2083369</t>
+          <t>https://www.cls.cn/detail/2085095</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证A500ETF（512880.SH）</t>
+          <t>科大讯飞（002230.SZ）</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>利好</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1.132</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.24%</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0.80%</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2.03%</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>45846</v>
+          <t>利空</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -541,44 +525,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>中证A500ETF系列产品整体表现不佳，多数产品成交额低迷，规模和份额大幅下滑，仅少数产品如华泰柏瑞、嘉实和东财旗下中证A500ETF实现增长。</t>
+          <t>亚马逊推出AI编程智能体应用Kiro，提升AI编程的可用性和开发效率。</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.cls.cn/detail/2083369</t>
+          <t>https://www.cls.cn/detail/2085095</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>嘉实中证A500ETF（159922.SZ）</t>
+          <t>用友网络（600588.SH）</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>利好</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2.378</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.39%</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>1.01%</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1.51%</t>
-        </is>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>45846</v>
+          <t>利空</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -587,44 +559,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>中证A500ETF系列产品整体表现不佳，多数产品成交额低迷，规模和份额大幅下滑，仅少数产品如华泰柏瑞、嘉实和东财旗下中证A500ETF实现增长。</t>
+          <t>亚马逊推出AI编程智能体应用Kiro，提升AI编程的可用性和开发效率。</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.cls.cn/detail/2083369</t>
+          <t>https://www.cls.cn/detail/2085095</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>东财中证A500ETF（159923.SZ）</t>
+          <t>中科创达（300496.SZ）</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>利好</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.62%</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0.51%</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1.12%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>45846</v>
+          <t>利空</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -633,44 +593,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>中证A500ETF系列产品整体表现不佳，多数产品成交额低迷，规模和份额大幅下滑，仅少数产品如华泰柏瑞、嘉实和东财旗下中证A500ETF实现增长。</t>
+          <t>亚马逊推出AI编程智能体应用Kiro，提升AI编程的可用性和开发效率。</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.cls.cn/detail/2083369</t>
+          <t>https://www.cls.cn/detail/2085095</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>国泰中证A500ETF（512330.SH）</t>
+          <t>浪潮信息（000977.SZ）</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>利空</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1.035</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2.22%</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>1.26%</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0.97%</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>45846</v>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -679,44 +627,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>中证A500ETF系列产品整体表现不佳，多数产品成交额低迷，规模和份额大幅下滑，仅少数产品如华泰柏瑞、嘉实和东财旗下中证A500ETF实现增长。</t>
+          <t>亚马逊推出AI编程智能体应用Kiro，提升AI编程的可用性和开发效率。</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.cls.cn/detail/2083369</t>
+          <t>https://www.cls.cn/detail/2085095</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>南方中证A500ETF（510500.SH）</t>
+          <t>光环新网（300383.SZ）</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>利空</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5.951</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.34%</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0.91%</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>1.46%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>45846</v>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -725,44 +661,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>中证A500ETF系列产品整体表现不佳，多数产品成交额低迷，规模和份额大幅下滑，仅少数产品如华泰柏瑞、嘉实和东财旗下中证A500ETF实现增长。</t>
+          <t>钨矿商Almonty Industries Inc.纳斯达克上市首日股价走高，计划融资9000万美元用于建设氧化钨工厂，并与美国国防企业签订长期钨供应合同。</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.cls.cn/detail/2083369</t>
+          <t>https://www.cls.cn/detail/2085094</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>广发中证A500ETF（510510.SH）</t>
+          <t>厦门钨业（600549.SH）</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>利空</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.45%</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0.97%</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>1.50%</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>45846</v>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -771,44 +695,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>中证A500ETF系列产品整体表现不佳，多数产品成交额低迷，规模和份额大幅下滑，仅少数产品如华泰柏瑞、嘉实和东财旗下中证A500ETF实现增长。</t>
+          <t>钨矿商Almonty Industries Inc.纳斯达克上市首日股价走高，计划融资9000万美元用于建设氧化钨工厂，并与美国国防企业签订长期钨供应合同。</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.cls.cn/detail/2083369</t>
+          <t>https://www.cls.cn/detail/2085094</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>华夏中证A500ETF（512990.SH）</t>
+          <t>中钨高新（000657.SZ）</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>利空</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1.646</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.85%</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0.61%</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>1.34%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>45846</v>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -817,17 +729,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>英伟达股价上涨使黄仁勋身家超过巴菲特</t>
+          <t>钨矿商Almonty Industries Inc.纳斯达克上市首日股价走高，计划融资9000万美元用于建设氧化钨工厂，并与美国国防企业签订长期钨供应合同。</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.cls.cn/detail/2083354</t>
+          <t>https://www.cls.cn/detail/2085094</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>中际旭创（300308.SZ）</t>
+          <t>章源钨业（002378.SZ）</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -835,26 +747,14 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F9" t="n">
-        <v>134.76</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>7.51%</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>7.82%</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>8.78%</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>45846</v>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -863,17 +763,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>英伟达股价上涨使黄仁勋身家超过巴菲特</t>
+          <t>Meta宣布将投资数千亿美元建设超大规模AI数据中心，全力推进超级智能研发。</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.cls.cn/detail/2083354</t>
+          <t>https://www.cls.cn/detail/2085085</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>新易盛（300502.SZ）</t>
+          <t>中际旭创（300308.SZ）</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -881,26 +781,14 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F10" t="n">
-        <v>126.48</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>6.72%</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>7.17%</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>5.19%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>45846</v>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -909,17 +797,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>英伟达股价上涨使黄仁勋身家超过巴菲特</t>
+          <t>Meta宣布将投资数千亿美元建设超大规模AI数据中心，全力推进超级智能研发。</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.cls.cn/detail/2083354</t>
+          <t>https://www.cls.cn/detail/2085085</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>工业富联（601138.SH）</t>
+          <t>新易盛（300502.SZ）</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -927,26 +815,14 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F11" t="n">
-        <v>24.88</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>6.03%</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>6.91%</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>5.14%</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>45846</v>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -955,44 +831,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>英伟达股价上涨使黄仁勋身家超过巴菲特</t>
+          <t>Meta宣布将投资数千亿美元建设超大规模AI数据中心，全力推进超级智能研发。</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.cls.cn/detail/2083354</t>
+          <t>https://www.cls.cn/detail/2085085</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>寒武纪（688256.SH）</t>
+          <t>浪潮信息（000977.SZ）</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>利空</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>540</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.51%</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>-0.93%</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>-3.06%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>45846</v>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -1001,17 +865,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>美股三大指数集体收跌，国际油价上涨，黄金白银比特币创新高，美国参议院批准对乌5亿美元援助，乌克兰称美欧军援渠道全面恢复。</t>
+          <t>Meta宣布将投资数千亿美元建设超大规模AI数据中心，全力推进超级智能研发。</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.cls.cn/detail/2083353</t>
+          <t>https://www.cls.cn/detail/2085085</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>中国石油(601857.SH)</t>
+          <t>紫光股份（000938.SZ）</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1019,26 +883,14 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F13" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.23%</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0.35%</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>1.29%</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>45846</v>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -1047,17 +899,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>美股三大指数集体收跌，国际油价上涨，黄金白银比特币创新高，美国参议院批准对乌5亿美元援助，乌克兰称美欧军援渠道全面恢复。</t>
+          <t>Meta宣布将投资数千亿美元建设超大规模AI数据中心，全力推进超级智能研发。</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.cls.cn/detail/2083353</t>
+          <t>https://www.cls.cn/detail/2085085</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>中国石化(600028.SH)</t>
+          <t>宝信软件（600845.SH）</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1065,26 +917,14 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F14" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.35%</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0.35%</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>1.77%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>45846</v>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1093,44 +933,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>美股三大指数集体收跌，国际油价上涨，黄金白银比特币创新高，美国参议院批准对乌5亿美元援助，乌克兰称美欧军援渠道全面恢复。</t>
+          <t>沙特阿拉伯对'一线城'项目进行战略审查，评估支出优先顺序和商业化路径。</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.cls.cn/detail/2083353</t>
+          <t>https://www.cls.cn/detail/2085073</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>山东黄金(600547.SH)</t>
+          <t>中国建筑（601668.SH）</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>利好</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>32.64</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>-1.29%</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>-3.80%</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>-4.66%</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>45846</v>
+          <t>利空</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1139,44 +967,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>美股三大指数集体收跌，国际油价上涨，黄金白银比特币创新高，美国参议院批准对乌5亿美元援助，乌克兰称美欧军援渠道全面恢复。</t>
+          <t>沙特阿拉伯对'一线城'项目进行战略审查，评估支出优先顺序和商业化路径。</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.cls.cn/detail/2083353</t>
+          <t>https://www.cls.cn/detail/2085073</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>中金黄金(600489.SH)</t>
+          <t>中国交建（601800.SH）</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>利好</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>14.28</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>-0.63%</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>-3.50%</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>-3.50%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>45846</v>
+          <t>利空</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1185,44 +1001,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>美股三大指数集体收跌，国际油价上涨，黄金白银比特币创新高，美国参议院批准对乌5亿美元援助，乌克兰称美欧军援渠道全面恢复。</t>
+          <t>沙特阿拉伯对'一线城'项目进行战略审查，评估支出优先顺序和商业化路径。</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.cls.cn/detail/2083353</t>
+          <t>https://www.cls.cn/detail/2085073</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>紫金矿业(601899.SH)</t>
+          <t>隆基绿能（601012.SH）</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>利好</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>19.87</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>-0.25%</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>-4.88%</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>-5.18%</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>45846</v>
+          <t>潜在利好</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1231,44 +1035,5438 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>美股三大指数集体收跌，国际油价上涨，黄金白银比特币创新高，美国参议院批准对乌5亿美元援助，乌克兰称美欧军援渠道全面恢复。</t>
+          <t>亚马逊推出AI编程智能体应用Kiro，提升AI编程的可用性和开发效率。</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.cls.cn/detail/2083353</t>
+          <t>https://www.cls.cn/detail/2085095</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>北方稀土(600111.SH)</t>
+          <t>科大讯飞（002230.SZ）</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>利好</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>24.43</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>1.88%</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>0.49%</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>10.56%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>45846</v>
+          <t>利空</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>亚马逊推出AI编程智能体应用Kiro，提升AI编程的可用性和开发效率。</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085095</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>用友网络（600588.SH）</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>利空</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>亚马逊推出AI编程智能体应用Kiro，提升AI编程的可用性和开发效率。</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085095</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>中科创达（300496.SZ）</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>利空</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>亚马逊推出AI编程智能体应用Kiro，提升AI编程的可用性和开发效率。</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085095</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>浪潮信息（000977.SZ）</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>亚马逊推出AI编程智能体应用Kiro，提升AI编程的可用性和开发效率。</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085095</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>光环新网（300383.SZ）</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>钨矿商Almonty Industries Inc.纳斯达克上市首日股价走高，计划融资9000万美元用于建设氧化钨工厂，并与美国国防企业签订长期钨供应合同。</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085094</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>厦门钨业（600549.SH）</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>钨矿商Almonty Industries Inc.纳斯达克上市首日股价走高，计划融资9000万美元用于建设氧化钨工厂，并与美国国防企业签订长期钨供应合同。</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085094</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>中钨高新（000657.SZ）</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>钨矿商Almonty Industries Inc.纳斯达克上市首日股价走高，计划融资9000万美元用于建设氧化钨工厂，并与美国国防企业签订长期钨供应合同。</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085094</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>章源钨业（002378.SZ）</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Meta宣布将投资数千亿美元建设超大规模AI数据中心，全力推进超级智能研发。</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085085</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>中际旭创（300308.SZ）</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Meta宣布将投资数千亿美元建设超大规模AI数据中心，全力推进超级智能研发。</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085085</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>新易盛（300502.SZ）</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Meta宣布将投资数千亿美元建设超大规模AI数据中心，全力推进超级智能研发。</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085085</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>浪潮信息（000977.SZ）</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Meta宣布将投资数千亿美元建设超大规模AI数据中心，全力推进超级智能研发。</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085085</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>紫光股份（000938.SZ）</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Meta宣布将投资数千亿美元建设超大规模AI数据中心，全力推进超级智能研发。</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085085</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>宝信软件（600845.SH）</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>沙特阿拉伯对'一线城'项目进行战略审查，评估支出优先顺序和商业化路径。</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085073</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>中国建筑（601668.SH）</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>利空</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>沙特阿拉伯对'一线城'项目进行战略审查，评估支出优先顺序和商业化路径。</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085073</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>中国交建（601800.SH）</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>利空</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>沙特阿拉伯对'一线城'项目进行战略审查，评估支出优先顺序和商业化路径。</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085073</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>隆基绿能（601012.SH）</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>潜在利好</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>特朗普将公布700亿美元AI和能源投资计划，Meta宣布数千亿美元AI投资，隆基绿能等公司发布上半年业绩预告。</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085190</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>隆基绿能(601012.SH)</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>利空</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>特朗普将公布700亿美元AI和能源投资计划，Meta宣布数千亿美元AI投资，隆基绿能等公司发布上半年业绩预告。</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085190</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>通威股份(600438.SH)</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>利空</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>特朗普将公布700亿美元AI和能源投资计划，Meta宣布数千亿美元AI投资，隆基绿能等公司发布上半年业绩预告。</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085190</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>闻泰科技(600745.SH)</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>特朗普将公布700亿美元AI和能源投资计划，Meta宣布数千亿美元AI投资，隆基绿能等公司发布上半年业绩预告。</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085190</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>生益电子(688183.SH)</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>特朗普将公布700亿美元AI和能源投资计划，Meta宣布数千亿美元AI投资，隆基绿能等公司发布上半年业绩预告。</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085190</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>纳睿雷达(688522.SH)</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>美国总统特朗普威胁对俄罗斯征收100%关税，如果俄乌冲突在50天内未解决，并宣布向乌克兰运送价值数十亿美元的军事装备，包括“爱国者”防空系统。</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085180</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>中国石油（601857.SH）</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>美国总统特朗普威胁对俄罗斯征收100%关税，如果俄乌冲突在50天内未解决，并宣布向乌克兰运送价值数十亿美元的军事装备，包括“爱国者”防空系统。</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085180</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>中国石化（600028.SH）</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>红太阳上半年业绩由盈转亏，亏损达1.68亿至2.28亿元，主要受农药市场竞争加剧、产品价格低位及成本高企影响。</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085179</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>红太阳（000525.SZ）</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>利空</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>欧盟威胁对美国商品征收840亿美元报复性关税，以回应特朗普的30%关税威胁。</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085164</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>宝钢股份（600019.SH）</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>欧盟威胁对美国商品征收840亿美元报复性关税，以回应特朗普的30%关税威胁。</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085164</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>中国铝业（601600.SH）</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>新易盛预计2025年上半年净利润同比增长超300%，受益于AI算力投资和CPO技术需求激增，同时CPO市场预计年复合增长率达137%。</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085151</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>新易盛(300502.SZ)</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>新易盛预计2025年上半年净利润同比增长超300%，受益于AI算力投资和CPO技术需求激增，同时CPO市场预计年复合增长率达137%。</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085151</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>光迅科技(002281.SZ)</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>新易盛预计2025年上半年净利润同比增长超300%，受益于AI算力投资和CPO技术需求激增，同时CPO市场预计年复合增长率达137%。</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085151</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>中际旭创(300308.SZ)</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>美国总统特朗普威胁对俄罗斯征收100%关税，如果俄乌冲突在50天内未解决，并宣布向乌克兰运送价值数十亿美元的军事装备，包括“爱国者”防空系统。</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085180</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>中国石油（601857.SH）</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>美国总统特朗普威胁对俄罗斯征收100%关税，如果俄乌冲突在50天内未解决，并宣布向乌克兰运送价值数十亿美元的军事装备，包括“爱国者”防空系统。</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085180</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>中国石化（600028.SH）</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>红太阳上半年业绩由盈转亏，亏损达1.68亿至2.28亿元，主要受农药市场竞争加剧、产品价格低位及成本高企影响。</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085179</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>红太阳（000525.SZ）</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>利空</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>欧盟威胁对美国商品征收840亿美元报复性关税，以回应特朗普的30%关税威胁。</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085164</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>宝钢股份（600019.SH）</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>欧盟威胁对美国商品征收840亿美元报复性关税，以回应特朗普的30%关税威胁。</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085164</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>中国铝业（601600.SH）</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>新易盛预计2025年上半年净利润同比增长超300%，受益于AI算力投资和CPO技术需求激增，同时CPO市场预计年复合增长率达137%。</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085151</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>新易盛(300502.SZ)</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>新易盛预计2025年上半年净利润同比增长超300%，受益于AI算力投资和CPO技术需求激增，同时CPO市场预计年复合增长率达137%。</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085151</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>光迅科技(002281.SZ)</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>新易盛预计2025年上半年净利润同比增长超300%，受益于AI算力投资和CPO技术需求激增，同时CPO市场预计年复合增长率达137%。</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085151</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>中际旭创(300308.SZ)</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>深圳地铁与万科合作开发的机器人实现全球首例自主搭乘地铁配送货，提升地铁商户物流效率和空闲运力利用率。</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085442</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>万科A（000002.SZ）</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>小鹏汇天完成2.5亿美元B轮融资，用于飞行汽车研发和量产，同时低空经济在政策支持下快速发展，相关供应链公司披露合作进展。</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085435</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>海特高新（002023.SZ）</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>小鹏汇天完成2.5亿美元B轮融资，用于飞行汽车研发和量产，同时低空经济在政策支持下快速发展，相关供应链公司披露合作进展。</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085435</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>华安鑫创（300928.SZ）</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>新闻涵盖福建阳光集团债券违约及诉讼进展、中国东航和中国国航半年度亏损预告、安顺西秀工业投资监管措施及新华联控股重整计划执行完毕。</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085372</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>阳光城（000671.SZ）</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>利空</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>新闻涵盖福建阳光集团债券违约及诉讼进展、中国东航和中国国航半年度亏损预告、安顺西秀工业投资监管措施及新华联控股重整计划执行完毕。</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085372</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>中国东航（600115.SH）</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>利空</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>新闻涵盖福建阳光集团债券违约及诉讼进展、中国东航和中国国航半年度亏损预告、安顺西秀工业投资监管措施及新华联控股重整计划执行完毕。</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085372</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>中国国航（601111.SH）</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>利空</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>科创板开市六周年论坛将于7月25日举行，主题聚焦科技创新、产业升级和集成电路产业发展。</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085422</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>中芯国际（688981.SH）</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>科创板开市六周年论坛将于7月25日举行，主题聚焦科技创新、产业升级和集成电路产业发展。</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085422</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>华虹半导体（688347.SH）</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>白银价格突破十四年高点，分析师对后市看法分歧，半导体需求增长支撑银价。</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085411</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>盛达资源(000603.SZ)</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>白银价格突破十四年高点，分析师对后市看法分歧，半导体需求增长支撑银价。</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085411</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>中芯国际(688981.SH)</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>国家统计局发布2025年上半年经济数据：GDP同比增长5.3%，工业增加值增6.4%，消费增5.0%，CPI降0.1%，PPI降2.8%，社融增量大幅增加22.83万亿元。</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085366</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>工商银行(601398.SH)</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>国家统计局发布2025年上半年经济数据：GDP同比增长5.3%，工业增加值增6.4%，消费增5.0%，CPI降0.1%，PPI降2.8%，社融增量大幅增加22.83万亿元。</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085366</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>贵州茅台(600519.SH)</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>国家统计局发布2025年上半年经济数据：GDP同比增长5.3%，工业增加值增6.4%，消费增5.0%，CPI降0.1%，PPI降2.8%，社融增量大幅增加22.83万亿元。</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085366</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>三一重工(600031.SH)</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>国家统计局发布2025年上半年经济数据：GDP同比增长5.3%，工业增加值增6.4%，消费增5.0%，CPI降0.1%，PPI降2.8%，社融增量大幅增加22.83万亿元。</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085366</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>中国建筑(601668.SH)</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>国家统计局发布2025年上半年经济数据：GDP同比增长5.3%，工业增加值增6.4%，消费增5.0%，CPI降0.1%，PPI降2.8%，社融增量大幅增加22.83万亿元。</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085366</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>美的集团(000333.SZ)</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>多地金融监管机构发布风险提示，警告不法分子利用稳定币概念进行非法集资、诈骗等违法犯罪活动，呼吁公众警惕投资风险。</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2083933</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>恒生电子（600570.SH）</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>利空</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>多地金融监管机构发布风险提示，警告不法分子利用稳定币概念进行非法集资、诈骗等违法犯罪活动，呼吁公众警惕投资风险。</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2083933</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>广电运通（002152.SZ）</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>利空</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>多地金融监管机构发布风险提示，警告不法分子利用稳定币概念进行非法集资、诈骗等违法犯罪活动，呼吁公众警惕投资风险。</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2083933</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>新大陆（000997.SZ）</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>利空</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>国务院国资委近日发布五户中央企业领导人员职务任免信息，涉及中国诚通控股集团、中国中车集团等企业的任命和免职。</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085520</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>中国中车(601766.SH)</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>中性</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>IDC报告显示，2025年第二季度全球智能手机出货量同比增长仅1%，增速放缓，主要因经济不确定性导致低端市场需求减弱，但厂商通过AI技术提升产品价值，市场整体乐观。</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085453</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>传音控股（688036.SH）</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>利空</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>舜宇集团在上海启动12英寸透明衬底晶圆AR眼镜微纳光学产品生产线项目，与上海国投、临港集团签约，获得上海政府政策支持，旨在推动AR智能眼镜等终端产业发展。</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085481</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>上海临港（600848.SH）</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>宝马与中国科技企业Momenta合作开发新一代智能驾驶辅助解决方案，应用于国产新世代车型，并深化与华为的鸿蒙生态合作。</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085466</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>中科创达 (300496.SZ)</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>宝马与中国科技企业Momenta合作开发新一代智能驾驶辅助解决方案，应用于国产新世代车型，并深化与华为的鸿蒙生态合作。</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085466</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>德赛西威 (002920.SZ)</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>宝马与中国科技企业Momenta合作开发新一代智能驾驶辅助解决方案，应用于国产新世代车型，并深化与华为的鸿蒙生态合作。</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085466</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>四维图新 (002405.SZ)</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>中央城市工作会议部署了以高质量发展为主题的城市工作七项重点任务，包括优化城市体系、建设创新宜居绿色韧性文明智慧城市。</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085462</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>万科A (000002.SZ)</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>中央城市工作会议部署了以高质量发展为主题的城市工作七项重点任务，包括优化城市体系、建设创新宜居绿色韧性文明智慧城市。</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085462</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>中国建筑 (601668.SH)</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>中央城市工作会议部署了以高质量发展为主题的城市工作七项重点任务，包括优化城市体系、建设创新宜居绿色韧性文明智慧城市。</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085462</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>海康威视 (002415.SZ)</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>中央城市工作会议部署了以高质量发展为主题的城市工作七项重点任务，包括优化城市体系、建设创新宜居绿色韧性文明智慧城市。</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085462</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>碧水源 (300070.SZ)</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>尽管多家头部黄金企业上半年业绩亮眼，但股价普遍下跌，因前期涨幅已透支预期、利好兑现触发获利了结，且美联储降息不确定性导致金价短期承压。</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085458</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>赤峰黄金(600988.SH)</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>利空</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>尽管多家头部黄金企业上半年业绩亮眼，但股价普遍下跌，因前期涨幅已透支预期、利好兑现触发获利了结，且美联储降息不确定性导致金价短期承压。</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085458</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>山东黄金(600547.SH)</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>利空</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>尽管多家头部黄金企业上半年业绩亮眼，但股价普遍下跌，因前期涨幅已透支预期、利好兑现触发获利了结，且美联储降息不确定性导致金价短期承压。</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085458</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>紫金矿业(601899.SH)</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>利空</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>10只科创债ETF将于7月17日集体上市，募集资金289.88亿元，兴业银行认购41.6亿元成为最大买家。</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085454</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>兴业银行（601166.SH）</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>10只科创债ETF将于7月17日集体上市，募集资金289.88亿元，兴业银行认购41.6亿元成为最大买家。</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085454</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>海通证券（600837.SH）</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>10只科创债ETF将于7月17日集体上市，募集资金289.88亿元，兴业银行认购41.6亿元成为最大买家。</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085454</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>招商证券（600999.SH）</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>10只科创债ETF将于7月17日集体上市，募集资金289.88亿元，兴业银行认购41.6亿元成为最大买家。</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085454</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>招商银行（600036.SH）</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>10只科创债ETF将于7月17日集体上市，募集资金289.88亿元，兴业银行认购41.6亿元成为最大买家。</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085454</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>长城证券（002939.SZ）</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>私募基金员工违规代持份额，保利资本等多家机构被监管处罚。</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085449</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>保利发展（600048.SH）</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>利空</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>穆迪首席经济学家警告称，高抵押贷款利率正导致美国房地产市场放缓，可能拖累整体经济增长，高盛也预测房价增长将大幅下降。</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085402</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>美的集团（000333.SZ）</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>利空</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>穆迪首席经济学家警告称，高抵押贷款利率正导致美国房地产市场放缓，可能拖累整体经济增长，高盛也预测房价增长将大幅下降。</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085402</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>万科A（000002.SZ）</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>利空</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>穆迪首席经济学家警告称，高抵押贷款利率正导致美国房地产市场放缓，可能拖累整体经济增长，高盛也预测房价增长将大幅下降。</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085402</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>海螺水泥（600585.SH）</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>利空</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>英伟达获批向中国销售H20芯片及多个城市推动稳定币发展，提振算力和数字货币相关A股股票表现。</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085813</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>新易盛（300502.SZ）</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Meta首席执行官扎克伯格宣布加速建设Hyperion数据中心，使用临时帐篷结构快速提升AI计算能力，目标2030年达5千兆瓦电力容量，以应对AI军备竞赛。</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085829</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>浪潮信息(000977.SZ)</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Meta首席执行官扎克伯格宣布加速建设Hyperion数据中心，使用临时帐篷结构快速提升AI计算能力，目标2030年达5千兆瓦电力容量，以应对AI军备竞赛。</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085829</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>中科曙光(603019.SH)</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Meta首席执行官扎克伯格宣布加速建设Hyperion数据中心，使用临时帐篷结构快速提升AI计算能力，目标2030年达5千兆瓦电力容量，以应对AI军备竞赛。</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085829</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>紫光股份(000938.SZ)</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>中国6月社会消费品零售总额同比增长4.8%低于预期，固定资产投资和房地产开发投资数据疲软，导致权益市场走弱、债券市场上涨。</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085808</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>万科A（000002.SZ）</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>利空</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>中国6月社会消费品零售总额同比增长4.8%低于预期，固定资产投资和房地产开发投资数据疲软，导致权益市场走弱、债券市场上涨。</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085808</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>贵州茅台（600519.SH）</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>利空</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>中国6月社会消费品零售总额同比增长4.8%低于预期，固定资产投资和房地产开发投资数据疲软，导致权益市场走弱、债券市场上涨。</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085808</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>工商银行（601398.SH）</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>利空</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2025中国具身智能产业大会将于8月13日至15日举办，覆盖产业生态，报告预测2025年具身智能和人形机器人市场规模将大幅增长，行业加速商业化。</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085833</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>埃斯顿（002747.SZ）</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2025中国具身智能产业大会将于8月13日至15日举办，覆盖产业生态，报告预测2025年具身智能和人形机器人市场规模将大幅增长，行业加速商业化。</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085833</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>汇川技术（300124.SZ）</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2025中国具身智能产业大会将于8月13日至15日举办，覆盖产业生态，报告预测2025年具身智能和人形机器人市场规模将大幅增长，行业加速商业化。</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085833</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>绿的谐波（688017.SH）</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2025中国具身智能产业大会将于8月13日至15日举办，覆盖产业生态，报告预测2025年具身智能和人形机器人市场规模将大幅增长，行业加速商业化。</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085833</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>鸣志电器（603728.SH）</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>商务部会同科技部调整《中国禁止出口限制出口技术目录》，删除部分建筑技术限制条目，新增电池正极材料制备技术限制，并修改锂提取技术控制要点，以维护国家安全和促进技术发展。</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085805</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>当升科技（300073.SZ）</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>商务部会同科技部调整《中国禁止出口限制出口技术目录》，删除部分建筑技术限制条目，新增电池正极材料制备技术限制，并修改锂提取技术控制要点，以维护国家安全和促进技术发展。</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085805</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>容百科技（688005.SH）</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>商务部会同科技部调整《中国禁止出口限制出口技术目录》，删除部分建筑技术限制条目，新增电池正极材料制备技术限制，并修改锂提取技术控制要点，以维护国家安全和促进技术发展。</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2085805</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>天齐锂业（002466.SZ）</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>美国CPI数据符合预期，英伟达恢复向中国销售H20芯片，特斯拉正式进军印度市场，埃克森美孚惠州乙烯项目投产。</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2086198</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>中科曙光(603019.SH)</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>美国CPI数据符合预期，英伟达恢复向中国销售H20芯片，特斯拉正式进军印度市场，埃克森美孚惠州乙烯项目投产。</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2086198</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>京东方A(000725.SZ)</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>利空</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>美国CPI数据符合预期，英伟达恢复向中国销售H20芯片，特斯拉正式进军印度市场，埃克森美孚惠州乙烯项目投产。</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2086198</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>宁德时代(300750.SZ)</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>美国CPI数据符合预期，英伟达恢复向中国销售H20芯片，特斯拉正式进军印度市场，埃克森美孚惠州乙烯项目投产。</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2086198</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>万华化学(600309.SH)</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>上海阳光医药采购网启动第十一批国家药品集采，55个品种纳入，政策基调温和，首次公布未纳入品种原因，避免极端低价。</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2086186</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>华东医药(000963.SZ)</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>上海阳光医药采购网启动第十一批国家药品集采，55个品种纳入，政策基调温和，首次公布未纳入品种原因，避免极端低价。</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2086186</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>九典制药(300705.SZ)</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>上海阳光医药采购网启动第十一批国家药品集采，55个品种纳入，政策基调温和，首次公布未纳入品种原因，避免极端低价。</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2086186</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>太极集团(600129.SH)</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>利空</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>国务院常务会议听取规范新能源汽车产业竞争秩序汇报，强调推动产业高质量发展，规范非理性竞争，加强监管和自律。</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2087315</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>比亚迪(002594.SZ)</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>国务院常务会议听取规范新能源汽车产业竞争秩序汇报，强调推动产业高质量发展，规范非理性竞争，加强监管和自律。</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2087315</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>宁德时代(300750.SZ)</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>国务院常务会议听取规范新能源汽车产业竞争秩序汇报，强调推动产业高质量发展，规范非理性竞争，加强监管和自律。</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2087315</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>上汽集团(600104.SH)</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>中科创星先导创业投资基金完成首轮26.17亿元募集，重点投向人工智能为核心的硬科技项目，包括半导体、量子计算和可控核聚变等领域。</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2087296</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>科大讯飞（002230.SZ）</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>中科创星先导创业投资基金完成首轮26.17亿元募集，重点投向人工智能为核心的硬科技项目，包括半导体、量子计算和可控核聚变等领域。</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2087296</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>中芯国际（688981.SH）</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>中科创星先导创业投资基金完成首轮26.17亿元募集，重点投向人工智能为核心的硬科技项目，包括半导体、量子计算和可控核聚变等领域。</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2087296</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>国盾量子（688027.SH）</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>南向资金成交占比本月首次跌破50%，美团和建行获净买入，腾讯、小米和金山云遭净流出。</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2087278</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>建设银行(601939.SH)</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>中欧红利精选基金在2025年二季报中清仓银行股，转而重仓制造业和公用事业股如郑煤机，实现季度收益超2%，规模环比增长29.17%。</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2087232</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>郑煤机（601717.SH）</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>中欧红利精选基金在2025年二季报中清仓银行股，转而重仓制造业和公用事业股如郑煤机，实现季度收益超2%，规模环比增长29.17%。</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2087232</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>美的集团（000333.SZ）</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>中欧红利精选基金在2025年二季报中清仓银行股，转而重仓制造业和公用事业股如郑煤机，实现季度收益超2%，规模环比增长29.17%。</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2087232</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>京能电力（600578.SH）</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>中欧红利精选基金在2025年二季报中清仓银行股，转而重仓制造业和公用事业股如郑煤机，实现季度收益超2%，规模环比增长29.17%。</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2087232</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>宁波银行（002142.SZ）</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>利空</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>法国政府公布2026年财政预算计划，包括对富人征收新税、削减社会福利支出、大幅增加国防开支等措施，以缓解财政赤字危机和应对地缘政治安全威胁。</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2087093</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>中国重工（601989.SH）</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>法国政府公布2026年财政预算计划，包括对富人征收新税、削减社会福利支出、大幅增加国防开支等措施，以缓解财政赤字危机和应对地缘政治安全威胁。</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2087093</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>中航沈飞（600760.SH）</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>红星美凯龙发布2025年半年度业绩预告，预计巨额亏损，主要因家居行业需求下滑、租金减免和物业估值下调，同时高管人事变动频发。</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2086867</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>红星美凯龙（601828.SH）</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>利空</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>红星美凯龙发布2025年半年度业绩预告，预计巨额亏损，主要因家居行业需求下滑、租金减免和物业估值下调，同时高管人事变动频发。</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2086867</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>建发股份（600153.SH）</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>利空</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>A股市场今日震荡调整，三大指数小幅下跌，个股涨多跌少，热点板块如医药、机器人和稳定币概念表现活跃，涨停股数量达55只。</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2087149</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>联环药业 (600513.SH)</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>A股市场今日震荡调整，三大指数小幅下跌，个股涨多跌少，热点板块如医药、机器人和稳定币概念表现活跃，涨停股数量达55只。</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2087149</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>广生堂 (300436.SZ)</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>A股市场今日震荡调整，三大指数小幅下跌，个股涨多跌少，热点板块如医药、机器人和稳定币概念表现活跃，涨停股数量达55只。</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2087149</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>金时科技 (002951.SZ)</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>A股市场今日震荡调整，三大指数小幅下跌，个股涨多跌少，热点板块如医药、机器人和稳定币概念表现活跃，涨停股数量达55只。</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2087149</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>绿地控股 (600606.SH)</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>利空</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>国务院常务会议听取规范新能源汽车产业竞争秩序汇报，强调推动产业高质量发展，规范非理性竞争，加强监管和自律。</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2087315</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>比亚迪(002594.SZ)</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>国务院常务会议听取规范新能源汽车产业竞争秩序汇报，强调推动产业高质量发展，规范非理性竞争，加强监管和自律。</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2087315</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>宁德时代(300750.SZ)</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>国务院常务会议听取规范新能源汽车产业竞争秩序汇报，强调推动产业高质量发展，规范非理性竞争，加强监管和自律。</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2087315</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>上汽集团(600104.SH)</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>中科创星先导创业投资基金完成首轮26.17亿元募集，重点投向人工智能为核心的硬科技项目，包括半导体、量子计算和可控核聚变等领域。</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2087296</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>科大讯飞（002230.SZ）</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>中科创星先导创业投资基金完成首轮26.17亿元募集，重点投向人工智能为核心的硬科技项目，包括半导体、量子计算和可控核聚变等领域。</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2087296</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>中芯国际（688981.SH）</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>中科创星先导创业投资基金完成首轮26.17亿元募集，重点投向人工智能为核心的硬科技项目，包括半导体、量子计算和可控核聚变等领域。</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2087296</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>国盾量子（688027.SH）</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>南向资金成交占比本月首次跌破50%，美团和建行获净买入，腾讯、小米和金山云遭净流出。</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2087278</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>建设银行(601939.SH)</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>中欧红利精选基金在2025年二季报中清仓银行股，转而重仓制造业和公用事业股如郑煤机，实现季度收益超2%，规模环比增长29.17%。</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2087232</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>郑煤机（601717.SH）</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>中欧红利精选基金在2025年二季报中清仓银行股，转而重仓制造业和公用事业股如郑煤机，实现季度收益超2%，规模环比增长29.17%。</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2087232</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>美的集团（000333.SZ）</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>中欧红利精选基金在2025年二季报中清仓银行股，转而重仓制造业和公用事业股如郑煤机，实现季度收益超2%，规模环比增长29.17%。</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2087232</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>京能电力（600578.SH）</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>中欧红利精选基金在2025年二季报中清仓银行股，转而重仓制造业和公用事业股如郑煤机，实现季度收益超2%，规模环比增长29.17%。</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2087232</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>宁波银行（002142.SZ）</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>利空</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>法国政府公布2026年财政预算计划，包括对富人征收新税、削减社会福利支出、大幅增加国防开支等措施，以缓解财政赤字危机和应对地缘政治安全威胁。</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2087093</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>中国重工（601989.SH）</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>法国政府公布2026年财政预算计划，包括对富人征收新税、削减社会福利支出、大幅增加国防开支等措施，以缓解财政赤字危机和应对地缘政治安全威胁。</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2087093</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>中航沈飞（600760.SH）</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>红星美凯龙发布2025年半年度业绩预告，预计巨额亏损，主要因家居行业需求下滑、租金减免和物业估值下调，同时高管人事变动频发。</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2086867</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>红星美凯龙（601828.SH）</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>利空</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>红星美凯龙发布2025年半年度业绩预告，预计巨额亏损，主要因家居行业需求下滑、租金减免和物业估值下调，同时高管人事变动频发。</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2086867</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>建发股份（600153.SH）</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>利空</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>A股市场今日震荡调整，三大指数小幅下跌，个股涨多跌少，热点板块如医药、机器人和稳定币概念表现活跃，涨停股数量达55只。</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2087149</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>联环药业 (600513.SH)</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>A股市场今日震荡调整，三大指数小幅下跌，个股涨多跌少，热点板块如医药、机器人和稳定币概念表现活跃，涨停股数量达55只。</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2087149</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>广生堂 (300436.SZ)</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>A股市场今日震荡调整，三大指数小幅下跌，个股涨多跌少，热点板块如医药、机器人和稳定币概念表现活跃，涨停股数量达55只。</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2087149</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>金时科技 (002951.SZ)</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>A股市场今日震荡调整，三大指数小幅下跌，个股涨多跌少，热点板块如医药、机器人和稳定币概念表现活跃，涨停股数量达55只。</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2087149</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>绿地控股 (600606.SH)</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>利空</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>受零售数据增长和财报季推动，美国股市标普500和纳斯达克指数创新高，中概股如阿里巴巴、理想汽车等上涨，台积电财报超预期。</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2088827</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>中芯国际(688981.SH)</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>受零售数据增长和财报季推动，美国股市标普500和纳斯达克指数创新高，中概股如阿里巴巴、理想汽车等上涨，台积电财报超预期。</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2088827</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>比亚迪(002594.SZ)</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>受零售数据增长和财报季推动，美国股市标普500和纳斯达克指数创新高，中概股如阿里巴巴、理想汽车等上涨，台积电财报超预期。</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2088827</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>宁德时代(300750.SZ)</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>OpenAI发布ChatGPT智能体，具备处理财务分析等复杂任务的能力，显著提高效率但限制用于炒股。</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2088807</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>科大讯飞（002230.SZ）</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>OpenAI发布ChatGPT智能体，具备处理财务分析等复杂任务的能力，显著提高效率但限制用于炒股。</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2088807</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>恒生电子（600570.SH）</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>利空</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>OpenAI发布ChatGPT智能体，具备处理财务分析等复杂任务的能力，显著提高效率但限制用于炒股。</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2088807</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>用友网络（600588.SH）</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>利空</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>美联储独立性面临特朗普政府压力，市场反应平淡，但未来主席过渡可能引发全球市场不确定性。</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2088788</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>中国平安 (601318.SH)</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>利空</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr"/>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>美联储独立性面临特朗普政府压力，市场反应平淡，但未来主席过渡可能引发全球市场不确定性。</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2088788</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>招商银行 (600036.SH)</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>利空</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>美联储理事库格勒表示，由于特朗普政府关税导致通胀上升，美联储应维持当前利率不变，不降息。</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2088740</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>美的集团(000333.SZ)</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>利空</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>美联储理事库格勒表示，由于特朗普政府关税导致通胀上升，美联储应维持当前利率不变，不降息。</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2088740</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>海尔智家(600690.SH)</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>利空</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr"/>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>美联储理事库格勒表示，由于特朗普政府关税导致通胀上升，美联储应维持当前利率不变，不降息。</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2088740</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>鲁泰A(000726.SZ)</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>利空</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="inlineStr"/>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>红墙股份实控人刘连军计划减持不超过3%股份以资助承德非盈利养老项目，公司业绩持续下滑且毛利率下降。</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2088739</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>红墙股份（002809.SZ）</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>利空</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr"/>
+      <c r="G165" t="inlineStr"/>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>最高人民法院公布参考案例，规定在楼盘烂尾无法交付时，购房者可一并解除房屋买卖合同和贷款合同，开发商需承担返还购房款和贷款本息的责任。</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2088715</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>万科A（000002.SZ）</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>利空</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>最高人民法院公布参考案例，规定在楼盘烂尾无法交付时，购房者可一并解除房屋买卖合同和贷款合同，开发商需承担返还购房款和贷款本息的责任。</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2088715</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>保利发展（600048.SH）</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>利空</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr"/>
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>最高人民法院公布参考案例，规定在楼盘烂尾无法交付时，购房者可一并解除房屋买卖合同和贷款合同，开发商需承担返还购房款和贷款本息的责任。</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2088715</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>招商蛇口（001979.SZ）</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>利空</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" t="inlineStr"/>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>诺和诺德基金会与丹麦出口和投资基金投资8000万欧元成立QuNorth，建造全球最强大的商用量子计算机Magne，预计2026-2027年投入使用。</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2088707</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>国盾量子（688027.SH）</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="inlineStr"/>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>诺和诺德基金会与丹麦出口和投资基金投资8000万欧元成立QuNorth，建造全球最强大的商用量子计算机Magne，预计2026-2027年投入使用。</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2088707</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>中科曙光（603019.SH）</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="inlineStr"/>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>2024年暑期档票房表现平淡，多部新片如《长安的荔枝》和《你行！你上！》提档上映，引发市场竞争，分析师期待后续影片带动市场热度。</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2088716</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>中国电影（600977.SH）</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>2024年暑期档票房表现平淡，多部新片如《长安的荔枝》和《你行！你上！》提档上映，引发市场竞争，分析师期待后续影片带动市场热度。</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2088716</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>横店影视（603103.SH）</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="inlineStr"/>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>2024年暑期档票房表现平淡，多部新片如《长安的荔枝》和《你行！你上！》提档上映，引发市场竞争，分析师期待后续影片带动市场热度。</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2088716</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>上海电影（601595.SH）</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="inlineStr"/>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>2024年暑期档票房表现平淡，多部新片如《长安的荔枝》和《你行！你上！》提档上映，引发市场竞争，分析师期待后续影片带动市场热度。</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2088716</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>光线传媒（300251.SZ）</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="inlineStr"/>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>国务院国资委会议强调加快培育新质生产力，推动科技创新、产业升级和国企改革。</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2088703</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>中国中车 (601766.SH)</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="inlineStr"/>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>国务院国资委会议强调加快培育新质生产力，推动科技创新、产业升级和国企改革。</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2088703</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>中芯国际 (688981.SH)</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="inlineStr"/>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>国务院国资委会议强调加快培育新质生产力，推动科技创新、产业升级和国企改革。</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2088703</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>中国移动 (600941.SH)</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="inlineStr"/>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/新闻股票跟踪.xlsx
+++ b/新闻股票跟踪.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J177"/>
+  <dimension ref="A1:J208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,10 +509,24 @@
           <t>利空</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>46.33</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.96%</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1.62%</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2.74%</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -543,10 +557,24 @@
           <t>利空</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>13.35</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.16%</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>7.87%</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>7.04%</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -577,10 +605,24 @@
           <t>利空</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.26%</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1.86%</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>4.12%</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -611,10 +653,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>8.33%</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>5.86%</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>7.42%</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -645,10 +701,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>15.12</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.56%</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>4.89%</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>5.75%</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -679,10 +749,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>21.66</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-0.51%</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>-0.23%</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>-0.37%</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -713,10 +797,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-0.08%</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>3.82%</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>5.01%</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -747,10 +845,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-1.10%</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0.98%</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1.83%</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -781,10 +893,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>155.3</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>12.56%</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>9.95%</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>13.88%</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -815,10 +941,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>149.02</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>5.41%</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>13.94%</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>23.14%</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -849,10 +989,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>8.33%</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>5.86%</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>7.42%</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -883,10 +1037,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>24.15</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.90%</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2.15%</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>3.60%</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -917,10 +1085,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>23.69</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.91%</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>3.00%</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>3.08%</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -951,10 +1133,24 @@
           <t>利空</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>-0.33%</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>-0.81%</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>-5.21%</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -985,10 +1181,24 @@
           <t>利空</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>9.06</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>-0.88%</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>-1.55%</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>-1.21%</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -1019,10 +1229,24 @@
           <t>潜在利好</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>16.15</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>-0.80%</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>-1.49%</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>0.37%</t>
+        </is>
+      </c>
       <c r="J17" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -1053,10 +1277,24 @@
           <t>利空</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>46.33</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.96%</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>1.62%</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2.74%</t>
+        </is>
+      </c>
       <c r="J18" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -1087,10 +1325,24 @@
           <t>利空</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>13.35</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>8.16%</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>7.87%</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>7.04%</t>
+        </is>
+      </c>
       <c r="J19" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -1121,10 +1373,24 @@
           <t>利空</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2.26%</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>1.86%</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>4.12%</t>
+        </is>
+      </c>
       <c r="J20" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -1155,10 +1421,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>8.33%</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>5.86%</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>7.42%</t>
+        </is>
+      </c>
       <c r="J21" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -1189,10 +1469,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>15.12</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>5.56%</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>4.89%</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>5.75%</t>
+        </is>
+      </c>
       <c r="J22" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -1223,10 +1517,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>21.66</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>-0.51%</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>-0.23%</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>-0.37%</t>
+        </is>
+      </c>
       <c r="J23" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -1257,10 +1565,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>-0.08%</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>3.82%</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>5.01%</t>
+        </is>
+      </c>
       <c r="J24" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -1291,10 +1613,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>-1.10%</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>0.98%</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>1.83%</t>
+        </is>
+      </c>
       <c r="J25" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -1325,10 +1661,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>155.3</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>12.56%</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>9.95%</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>13.88%</t>
+        </is>
+      </c>
       <c r="J26" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -1359,10 +1709,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>149.02</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>5.41%</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>13.94%</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>23.14%</t>
+        </is>
+      </c>
       <c r="J27" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -1393,10 +1757,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>8.33%</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>5.86%</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>7.42%</t>
+        </is>
+      </c>
       <c r="J28" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -1427,10 +1805,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>24.15</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2.90%</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2.15%</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>3.60%</t>
+        </is>
+      </c>
       <c r="J29" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -1461,10 +1853,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>23.69</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2.91%</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>3.00%</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>3.08%</t>
+        </is>
+      </c>
       <c r="J30" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -1495,10 +1901,24 @@
           <t>利空</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>-0.33%</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>-0.81%</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>-5.21%</t>
+        </is>
+      </c>
       <c r="J31" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -1529,10 +1949,24 @@
           <t>利空</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>9.06</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>-0.88%</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>-1.55%</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>-1.21%</t>
+        </is>
+      </c>
       <c r="J32" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -1563,10 +1997,24 @@
           <t>潜在利好</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>16.15</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>-0.80%</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>-1.49%</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>0.37%</t>
+        </is>
+      </c>
       <c r="J33" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -1597,10 +2045,24 @@
           <t>利空</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>16.15</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>-0.80%</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>-1.49%</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>0.37%</t>
+        </is>
+      </c>
       <c r="J34" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -1631,10 +2093,24 @@
           <t>利空</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>-1.13%</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>1.18%</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>1.96%</t>
+        </is>
+      </c>
       <c r="J35" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -1665,10 +2141,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>34.52</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.55%</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>0.09%</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>1.54%</t>
+        </is>
+      </c>
       <c r="J36" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -1699,10 +2189,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>-0.64%</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>-1.58%</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>12.06%</t>
+        </is>
+      </c>
       <c r="J37" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -1733,10 +2237,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>48.87</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>-1.31%</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>-0.37%</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>0.90%</t>
+        </is>
+      </c>
       <c r="J38" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -1767,10 +2285,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.79%</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>1.35%</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>0.56%</t>
+        </is>
+      </c>
       <c r="J39" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -1801,10 +2333,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>-0.52%</t>
+        </is>
+      </c>
       <c r="J40" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -1835,10 +2381,24 @@
           <t>利空</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>-1.83%</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>-0.61%</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>1.37%</t>
+        </is>
+      </c>
       <c r="J41" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -1869,10 +2429,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>-0.42%</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>-1.98%</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>-0.56%</t>
+        </is>
+      </c>
       <c r="J42" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -1903,10 +2477,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
+      <c r="F43" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>-0.42%</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>-0.97%</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>-0.56%</t>
+        </is>
+      </c>
       <c r="J43" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -1937,10 +2525,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
+      <c r="F44" t="n">
+        <v>149.02</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>5.41%</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>13.94%</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>23.14%</t>
+        </is>
+      </c>
       <c r="J44" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -1971,10 +2573,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
+      <c r="F45" t="n">
+        <v>47</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>3.72%</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>1.00%</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>4.91%</t>
+        </is>
+      </c>
       <c r="J45" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -2005,10 +2621,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
+      <c r="F46" t="n">
+        <v>155.3</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>12.56%</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>9.95%</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>13.88%</t>
+        </is>
+      </c>
       <c r="J46" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -2039,10 +2669,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
+      <c r="F47" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.79%</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>1.35%</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>0.56%</t>
+        </is>
+      </c>
       <c r="J47" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -2073,10 +2717,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
+      <c r="F48" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>-0.52%</t>
+        </is>
+      </c>
       <c r="J48" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -2107,10 +2765,24 @@
           <t>利空</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
+      <c r="F49" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>-1.83%</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>-0.61%</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>1.37%</t>
+        </is>
+      </c>
       <c r="J49" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -2141,10 +2813,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
+      <c r="F50" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>-0.42%</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>-1.98%</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>-0.56%</t>
+        </is>
+      </c>
       <c r="J50" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -2175,10 +2861,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
+      <c r="F51" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>-0.42%</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>-0.97%</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>-0.56%</t>
+        </is>
+      </c>
       <c r="J51" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -2209,10 +2909,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
+      <c r="F52" t="n">
+        <v>149.02</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>5.41%</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>13.94%</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>23.14%</t>
+        </is>
+      </c>
       <c r="J52" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -2243,10 +2957,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
+      <c r="F53" t="n">
+        <v>47</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>3.72%</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>1.00%</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>4.91%</t>
+        </is>
+      </c>
       <c r="J53" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -2277,10 +3005,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
+      <c r="F54" t="n">
+        <v>155.3</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>12.56%</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>9.95%</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>13.88%</t>
+        </is>
+      </c>
       <c r="J54" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -2311,10 +3053,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
+      <c r="F55" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>-0.60%</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>-1.20%</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>-1.20%</t>
+        </is>
+      </c>
       <c r="J55" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -2345,10 +3101,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
+      <c r="F56" t="n">
+        <v>10.61</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>-1.70%</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>-1.51%</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>1.04%</t>
+        </is>
+      </c>
       <c r="J56" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -2379,10 +3149,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
+      <c r="F57" t="n">
+        <v>33.81</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>-1.12%</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>-0.09%</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>2.40%</t>
+        </is>
+      </c>
       <c r="J57" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -2447,10 +3231,24 @@
           <t>利空</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
+      <c r="F59" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>-0.26%</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>-0.26%</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>-0.26%</t>
+        </is>
+      </c>
       <c r="J59" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -2481,10 +3279,24 @@
           <t>利空</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
+      <c r="F60" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>-0.80%</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>-0.13%</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>-1.47%</t>
+        </is>
+      </c>
       <c r="J60" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -2515,10 +3327,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
+      <c r="F61" t="n">
+        <v>87.15000000000001</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.85%</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>-0.03%</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>1.88%</t>
+        </is>
+      </c>
       <c r="J61" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -2549,10 +3375,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
+      <c r="F62" t="n">
+        <v>54</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.15%</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>-1.17%</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>-1.39%</t>
+        </is>
+      </c>
       <c r="J62" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -2583,10 +3423,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
+      <c r="F63" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>1.00%</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>-2.31%</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>-2.50%</t>
+        </is>
+      </c>
       <c r="J63" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -2617,10 +3471,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
+      <c r="F64" t="n">
+        <v>87.15000000000001</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.85%</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>-0.03%</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>1.88%</t>
+        </is>
+      </c>
       <c r="J64" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -2651,10 +3519,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
+      <c r="F65" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>-0.76%</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>-0.76%</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>-1.40%</t>
+        </is>
+      </c>
       <c r="J65" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -2685,10 +3567,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
+      <c r="F66" t="n">
+        <v>1420.98</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>-0.70%</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>-0.70%</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>-0.33%</t>
+        </is>
+      </c>
       <c r="J66" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -2719,10 +3615,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
+      <c r="F67" t="n">
+        <v>18.74</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.85%</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>-0.16%</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>0.53%</t>
+        </is>
+      </c>
       <c r="J67" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -2753,10 +3663,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
+      <c r="F68" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>-0.33%</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>-0.81%</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>-5.21%</t>
+        </is>
+      </c>
       <c r="J68" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -2787,10 +3711,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
+      <c r="F69" t="n">
+        <v>73.11</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.14%</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>-0.30%</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>-0.66%</t>
+        </is>
+      </c>
       <c r="J69" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -2821,10 +3759,24 @@
           <t>利空</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
+      <c r="F70" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.30%</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>-1.58%</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>-0.54%</t>
+        </is>
+      </c>
       <c r="J70" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -2855,10 +3807,24 @@
           <t>利空</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
+      <c r="F71" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>-1.06%</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>-1.85%</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>-1.56%</t>
+        </is>
+      </c>
       <c r="J71" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -2889,10 +3855,24 @@
           <t>利空</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
+      <c r="F72" t="n">
+        <v>33.04</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.82%</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>-1.03%</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>-1.45%</t>
+        </is>
+      </c>
       <c r="J72" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -2923,10 +3903,24 @@
           <t>中性</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
+      <c r="F73" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.27%</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>-0.13%</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>-0.13%</t>
+        </is>
+      </c>
       <c r="J73" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -2957,10 +3951,24 @@
           <t>利空</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
+      <c r="F74" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>-0.84%</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>-2.51%</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>-0.95%</t>
+        </is>
+      </c>
       <c r="J74" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -2991,10 +3999,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
+      <c r="F75" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.11%</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>1.19%</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
       <c r="J75" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -3025,10 +4047,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
+      <c r="F76" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>2.26%</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>1.86%</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>4.12%</t>
+        </is>
+      </c>
       <c r="J76" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -3059,10 +4095,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
+      <c r="F77" t="n">
+        <v>101.42</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.43%</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>2.37%</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>2.40%</t>
+        </is>
+      </c>
       <c r="J77" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -3093,10 +4143,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
+      <c r="F78" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>-0.85%</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>-0.60%</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>0.85%</t>
+        </is>
+      </c>
       <c r="J78" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -3127,10 +4191,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
+      <c r="F79" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>-0.60%</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>-1.20%</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>-1.20%</t>
+        </is>
+      </c>
       <c r="J79" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -3161,10 +4239,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
+      <c r="F80" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>-0.33%</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>-0.81%</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>-5.21%</t>
+        </is>
+      </c>
       <c r="J80" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -3195,10 +4287,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
+      <c r="F81" t="n">
+        <v>27.76</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.61%</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>-0.14%</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>0.65%</t>
+        </is>
+      </c>
       <c r="J81" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -3229,10 +4335,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
+      <c r="F82" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>-1.74%</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>-1.74%</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>-1.74%</t>
+        </is>
+      </c>
       <c r="J82" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -3263,10 +4383,24 @@
           <t>利空</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
+      <c r="F83" t="n">
+        <v>23.89</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.38%</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>1.05%</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>-0.96%</t>
+        </is>
+      </c>
       <c r="J83" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -3297,10 +4431,24 @@
           <t>利空</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
+      <c r="F84" t="n">
+        <v>31.58</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>-0.54%</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>-1.01%</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>-3.07%</t>
+        </is>
+      </c>
       <c r="J84" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -3331,10 +4479,24 @@
           <t>利空</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
+      <c r="F85" t="n">
+        <v>19.06</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.31%</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>0.42%</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>0.05%</t>
+        </is>
+      </c>
       <c r="J85" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -3365,10 +4527,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
+      <c r="F86" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>-1.09%</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>-1.58%</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>-1.66%</t>
+        </is>
+      </c>
       <c r="J86" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -3433,10 +4609,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
+      <c r="F88" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>-2.99%</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>-5.76%</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>-5.49%</t>
+        </is>
+      </c>
       <c r="J88" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -3467,10 +4657,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
+      <c r="F89" t="n">
+        <v>45.77</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>-1.20%</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>-1.44%</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>-1.68%</t>
+        </is>
+      </c>
       <c r="J89" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -3501,10 +4705,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
+      <c r="F90" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>-0.67%</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>-0.67%</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>-0.67%</t>
+        </is>
+      </c>
       <c r="J90" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -3535,10 +4753,24 @@
           <t>利空</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
+      <c r="F91" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>-1.23%</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>-1.60%</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>-1.48%</t>
+        </is>
+      </c>
       <c r="J91" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -3569,10 +4801,24 @@
           <t>利空</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
+      <c r="F92" t="n">
+        <v>73.11</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.14%</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>-0.30%</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>-0.66%</t>
+        </is>
+      </c>
       <c r="J92" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -3603,10 +4849,24 @@
           <t>利空</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr"/>
+      <c r="F93" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>-0.60%</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>-1.20%</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>-1.20%</t>
+        </is>
+      </c>
       <c r="J93" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -3637,10 +4897,24 @@
           <t>利空</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr"/>
+      <c r="F94" t="n">
+        <v>23.22</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>-2.67%</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>-3.83%</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>-3.75%</t>
+        </is>
+      </c>
       <c r="J94" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -3671,10 +4945,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr"/>
+      <c r="F95" t="n">
+        <v>149.02</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>5.41%</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>13.94%</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>23.14%</t>
+        </is>
+      </c>
       <c r="J95" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -3705,10 +4993,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr"/>
+      <c r="F96" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>8.33%</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>5.86%</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>7.42%</t>
+        </is>
+      </c>
       <c r="J96" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -3739,10 +5041,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr"/>
-      <c r="I97" t="inlineStr"/>
+      <c r="F97" t="n">
+        <v>68.72</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>1.46%</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>1.41%</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>1.60%</t>
+        </is>
+      </c>
       <c r="J97" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -3773,10 +5089,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr"/>
+      <c r="F98" t="n">
+        <v>24.15</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>2.90%</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>2.15%</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>3.60%</t>
+        </is>
+      </c>
       <c r="J98" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -3807,10 +5137,24 @@
           <t>利空</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr"/>
+      <c r="F99" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>-0.60%</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>-1.20%</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>-1.20%</t>
+        </is>
+      </c>
       <c r="J99" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -3841,10 +5185,24 @@
           <t>利空</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr"/>
-      <c r="I100" t="inlineStr"/>
+      <c r="F100" t="n">
+        <v>1420.98</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>-0.70%</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>-0.70%</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>-0.33%</t>
+        </is>
+      </c>
       <c r="J100" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -3875,10 +5233,24 @@
           <t>利空</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr"/>
+      <c r="F101" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>-0.76%</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>-0.76%</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>-1.40%</t>
+        </is>
+      </c>
       <c r="J101" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -3909,10 +5281,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr"/>
-      <c r="I102" t="inlineStr"/>
+      <c r="F102" t="n">
+        <v>20.45</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.64%</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>0.54%</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>2.84%</t>
+        </is>
+      </c>
       <c r="J102" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -3943,10 +5329,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr"/>
-      <c r="I103" t="inlineStr"/>
+      <c r="F103" t="n">
+        <v>64.45</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>-0.47%</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>0.11%</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>1.06%</t>
+        </is>
+      </c>
       <c r="J103" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -3977,10 +5377,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr"/>
-      <c r="I104" t="inlineStr"/>
+      <c r="F104" t="n">
+        <v>125</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>-0.48%</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>1.11%</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>3.21%</t>
+        </is>
+      </c>
       <c r="J104" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -4011,10 +5425,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr"/>
-      <c r="I105" t="inlineStr"/>
+      <c r="F105" t="n">
+        <v>57.71</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>-0.88%</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>2.04%</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>1.99%</t>
+        </is>
+      </c>
       <c r="J105" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -4045,10 +5473,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr"/>
-      <c r="I106" t="inlineStr"/>
+      <c r="F106" t="n">
+        <v>42.34</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>-1.44%</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>-0.68%</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>0.47%</t>
+        </is>
+      </c>
       <c r="J106" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -4079,10 +5521,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr"/>
-      <c r="I107" t="inlineStr"/>
+      <c r="F107" t="n">
+        <v>22.18</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>-2.57%</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>-2.34%</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>0.54%</t>
+        </is>
+      </c>
       <c r="J107" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -4113,10 +5569,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr"/>
-      <c r="I108" t="inlineStr"/>
+      <c r="F108" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>-0.44%</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>-2.91%</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>0.65%</t>
+        </is>
+      </c>
       <c r="J108" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -4147,10 +5617,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr"/>
-      <c r="I109" t="inlineStr"/>
+      <c r="F109" t="n">
+        <v>68.72</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>1.46%</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>1.41%</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>1.60%</t>
+        </is>
+      </c>
       <c r="J109" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -4181,10 +5665,24 @@
           <t>利空</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr"/>
-      <c r="I110" t="inlineStr"/>
+      <c r="F110" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>-1.73%</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>-2.23%</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
       <c r="J110" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -4215,10 +5713,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
-      <c r="H111" t="inlineStr"/>
-      <c r="I111" t="inlineStr"/>
+      <c r="F111" t="n">
+        <v>268.5</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>-0.28%</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>-1.53%</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>-1.12%</t>
+        </is>
+      </c>
       <c r="J111" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -4249,10 +5761,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
-      <c r="H112" t="inlineStr"/>
-      <c r="I112" t="inlineStr"/>
+      <c r="F112" t="n">
+        <v>55.25</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>-0.42%</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>-0.74%</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>-0.18%</t>
+        </is>
+      </c>
       <c r="J112" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -4283,10 +5809,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr"/>
-      <c r="I113" t="inlineStr"/>
+      <c r="F113" t="n">
+        <v>40.51</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.17%</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>4.84%</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>8.47%</t>
+        </is>
+      </c>
       <c r="J113" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -4317,10 +5857,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
-      <c r="H114" t="inlineStr"/>
-      <c r="I114" t="inlineStr"/>
+      <c r="F114" t="n">
+        <v>16.22</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>-0.92%</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>1.97%</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>1.97%</t>
+        </is>
+      </c>
       <c r="J114" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -4351,10 +5905,24 @@
           <t>利空</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr"/>
-      <c r="I115" t="inlineStr"/>
+      <c r="F115" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>-1.12%</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>1.21%</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>2.28%</t>
+        </is>
+      </c>
       <c r="J115" t="inlineStr">
         <is>
           <t>2025-07-15</t>
@@ -4385,10 +5953,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
-      <c r="H116" t="inlineStr"/>
-      <c r="I116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>323.06</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.20%</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>1.54%</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>1.87%</t>
+        </is>
+      </c>
       <c r="J116" t="inlineStr">
         <is>
           <t>2025-07-16</t>
@@ -4419,10 +6001,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
-      <c r="H117" t="inlineStr"/>
-      <c r="I117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>268.5</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>-1.53%</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>-1.12%</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>1.01%</t>
+        </is>
+      </c>
       <c r="J117" t="inlineStr">
         <is>
           <t>2025-07-16</t>
@@ -4453,10 +6049,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
-      <c r="I118" t="inlineStr"/>
+      <c r="F118" t="n">
+        <v>18.21</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>-1.48%</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>-1.59%</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>-1.92%</t>
+        </is>
+      </c>
       <c r="J118" t="inlineStr">
         <is>
           <t>2025-07-16</t>
@@ -4487,10 +6097,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
-      <c r="H119" t="inlineStr"/>
-      <c r="I119" t="inlineStr"/>
+      <c r="F119" t="n">
+        <v>47.36</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>-0.59%</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>0.51%</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>0.63%</t>
+        </is>
+      </c>
       <c r="J119" t="inlineStr">
         <is>
           <t>2025-07-16</t>
@@ -4521,10 +6145,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
-      <c r="H120" t="inlineStr"/>
-      <c r="I120" t="inlineStr"/>
+      <c r="F120" t="n">
+        <v>87.73</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>-0.70%</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>1.21%</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>0.89%</t>
+        </is>
+      </c>
       <c r="J120" t="inlineStr">
         <is>
           <t>2025-07-16</t>
@@ -4555,10 +6193,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
-      <c r="H121" t="inlineStr"/>
-      <c r="I121" t="inlineStr"/>
+      <c r="F121" t="n">
+        <v>268.13</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>1.07%</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>1.10%</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>1.01%</t>
+        </is>
+      </c>
       <c r="J121" t="inlineStr">
         <is>
           <t>2025-07-16</t>
@@ -4589,10 +6241,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
-      <c r="H122" t="inlineStr"/>
-      <c r="I122" t="inlineStr"/>
+      <c r="F122" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.21%</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>-0.41%</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>-0.41%</t>
+        </is>
+      </c>
       <c r="J122" t="inlineStr">
         <is>
           <t>2025-07-16</t>
@@ -4623,10 +6289,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
-      <c r="H123" t="inlineStr"/>
-      <c r="I123" t="inlineStr"/>
+      <c r="F123" t="n">
+        <v>17.27</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>-0.64%</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>-0.64%</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>-0.75%</t>
+        </is>
+      </c>
       <c r="J123" t="inlineStr">
         <is>
           <t>2025-07-16</t>
@@ -4657,10 +6337,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
-      <c r="H124" t="inlineStr"/>
-      <c r="I124" t="inlineStr"/>
+      <c r="F124" t="n">
+        <v>73.47</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>-0.79%</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>-1.14%</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>-0.87%</t>
+        </is>
+      </c>
       <c r="J124" t="inlineStr">
         <is>
           <t>2025-07-16</t>
@@ -4691,10 +6385,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
-      <c r="H125" t="inlineStr"/>
-      <c r="I125" t="inlineStr"/>
+      <c r="F125" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>-0.87%</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>-1.96%</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>-2.18%</t>
+        </is>
+      </c>
       <c r="J125" t="inlineStr">
         <is>
           <t>2025-07-16</t>
@@ -4725,10 +6433,24 @@
           <t>利空</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr"/>
-      <c r="H126" t="inlineStr"/>
-      <c r="I126" t="inlineStr"/>
+      <c r="F126" t="n">
+        <v>27.09</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>-1.18%</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>-1.48%</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>-0.41%</t>
+        </is>
+      </c>
       <c r="J126" t="inlineStr">
         <is>
           <t>2025-07-16</t>
@@ -4759,10 +6481,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
-      <c r="H127" t="inlineStr"/>
-      <c r="I127" t="inlineStr"/>
+      <c r="F127" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>-0.43%</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>0.87%</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>1.74%</t>
+        </is>
+      </c>
       <c r="J127" t="inlineStr">
         <is>
           <t>2025-07-16</t>
@@ -4793,10 +6529,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr"/>
-      <c r="H128" t="inlineStr"/>
-      <c r="I128" t="inlineStr"/>
+      <c r="F128" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>-0.21%</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>9.78%</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>12.98%</t>
+        </is>
+      </c>
       <c r="J128" t="inlineStr">
         <is>
           <t>2025-07-16</t>
@@ -4827,10 +6577,24 @@
           <t>利空</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr"/>
-      <c r="H129" t="inlineStr"/>
-      <c r="I129" t="inlineStr"/>
+      <c r="F129" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>1.01%</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>1.69%</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>1.35%</t>
+        </is>
+      </c>
       <c r="J129" t="inlineStr">
         <is>
           <t>2025-07-16</t>
@@ -4861,10 +6625,24 @@
           <t>利空</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr"/>
-      <c r="H130" t="inlineStr"/>
-      <c r="I130" t="inlineStr"/>
+      <c r="F130" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>-2.43%</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>-2.99%</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>-3.46%</t>
+        </is>
+      </c>
       <c r="J130" t="inlineStr">
         <is>
           <t>2025-07-16</t>
@@ -4895,10 +6673,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr"/>
-      <c r="H131" t="inlineStr"/>
-      <c r="I131" t="inlineStr"/>
+      <c r="F131" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>14.06%</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>16.36%</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>17.13%</t>
+        </is>
+      </c>
       <c r="J131" t="inlineStr">
         <is>
           <t>2025-07-16</t>
@@ -4929,10 +6721,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr"/>
-      <c r="H132" t="inlineStr"/>
-      <c r="I132" t="inlineStr"/>
+      <c r="F132" t="n">
+        <v>65.54000000000001</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>14.24%</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>9.20%</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>7.11%</t>
+        </is>
+      </c>
       <c r="J132" t="inlineStr">
         <is>
           <t>2025-07-16</t>
@@ -4963,10 +6769,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr"/>
-      <c r="H133" t="inlineStr"/>
-      <c r="I133" t="inlineStr"/>
+      <c r="F133" t="n">
+        <v>18.21</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>6.15%</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>-3.79%</t>
+        </is>
+      </c>
       <c r="J133" t="inlineStr">
         <is>
           <t>2025-07-16</t>
@@ -4997,10 +6817,24 @@
           <t>利空</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr"/>
-      <c r="H134" t="inlineStr"/>
-      <c r="I134" t="inlineStr"/>
+      <c r="F134" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>-5.09%</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>-7.87%</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>-9.26%</t>
+        </is>
+      </c>
       <c r="J134" t="inlineStr">
         <is>
           <t>2025-07-16</t>
@@ -5031,10 +6865,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr"/>
-      <c r="H135" t="inlineStr"/>
-      <c r="I135" t="inlineStr"/>
+      <c r="F135" t="n">
+        <v>323.06</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.20%</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>1.54%</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>1.87%</t>
+        </is>
+      </c>
       <c r="J135" t="inlineStr">
         <is>
           <t>2025-07-16</t>
@@ -5065,10 +6913,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr"/>
-      <c r="H136" t="inlineStr"/>
-      <c r="I136" t="inlineStr"/>
+      <c r="F136" t="n">
+        <v>268.5</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>-1.53%</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>-1.12%</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>1.01%</t>
+        </is>
+      </c>
       <c r="J136" t="inlineStr">
         <is>
           <t>2025-07-16</t>
@@ -5099,10 +6961,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr"/>
-      <c r="H137" t="inlineStr"/>
-      <c r="I137" t="inlineStr"/>
+      <c r="F137" t="n">
+        <v>18.21</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>-1.48%</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>-1.59%</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>-1.92%</t>
+        </is>
+      </c>
       <c r="J137" t="inlineStr">
         <is>
           <t>2025-07-16</t>
@@ -5133,10 +7009,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr"/>
-      <c r="G138" t="inlineStr"/>
-      <c r="H138" t="inlineStr"/>
-      <c r="I138" t="inlineStr"/>
+      <c r="F138" t="n">
+        <v>47.36</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>-0.59%</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>0.51%</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>0.63%</t>
+        </is>
+      </c>
       <c r="J138" t="inlineStr">
         <is>
           <t>2025-07-16</t>
@@ -5167,10 +7057,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr"/>
-      <c r="H139" t="inlineStr"/>
-      <c r="I139" t="inlineStr"/>
+      <c r="F139" t="n">
+        <v>87.73</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>-0.70%</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>1.21%</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>0.89%</t>
+        </is>
+      </c>
       <c r="J139" t="inlineStr">
         <is>
           <t>2025-07-16</t>
@@ -5201,10 +7105,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr"/>
-      <c r="H140" t="inlineStr"/>
-      <c r="I140" t="inlineStr"/>
+      <c r="F140" t="n">
+        <v>268.13</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>1.07%</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>1.10%</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>1.01%</t>
+        </is>
+      </c>
       <c r="J140" t="inlineStr">
         <is>
           <t>2025-07-16</t>
@@ -5235,10 +7153,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
-      <c r="H141" t="inlineStr"/>
-      <c r="I141" t="inlineStr"/>
+      <c r="F141" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.21%</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>-0.41%</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>-0.41%</t>
+        </is>
+      </c>
       <c r="J141" t="inlineStr">
         <is>
           <t>2025-07-16</t>
@@ -5269,10 +7201,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr"/>
-      <c r="H142" t="inlineStr"/>
-      <c r="I142" t="inlineStr"/>
+      <c r="F142" t="n">
+        <v>17.27</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>-0.64%</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>-0.64%</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>-0.75%</t>
+        </is>
+      </c>
       <c r="J142" t="inlineStr">
         <is>
           <t>2025-07-16</t>
@@ -5303,10 +7249,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr"/>
-      <c r="G143" t="inlineStr"/>
-      <c r="H143" t="inlineStr"/>
-      <c r="I143" t="inlineStr"/>
+      <c r="F143" t="n">
+        <v>73.47</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>-0.79%</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>-1.14%</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>-0.87%</t>
+        </is>
+      </c>
       <c r="J143" t="inlineStr">
         <is>
           <t>2025-07-16</t>
@@ -5337,10 +7297,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
-      <c r="H144" t="inlineStr"/>
-      <c r="I144" t="inlineStr"/>
+      <c r="F144" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>-0.87%</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>-1.96%</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>-2.18%</t>
+        </is>
+      </c>
       <c r="J144" t="inlineStr">
         <is>
           <t>2025-07-16</t>
@@ -5371,10 +7345,24 @@
           <t>利空</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
-      <c r="H145" t="inlineStr"/>
-      <c r="I145" t="inlineStr"/>
+      <c r="F145" t="n">
+        <v>27.09</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>-1.18%</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>-1.48%</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>-0.41%</t>
+        </is>
+      </c>
       <c r="J145" t="inlineStr">
         <is>
           <t>2025-07-16</t>
@@ -5405,10 +7393,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr"/>
-      <c r="H146" t="inlineStr"/>
-      <c r="I146" t="inlineStr"/>
+      <c r="F146" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>-0.43%</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>0.87%</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>1.74%</t>
+        </is>
+      </c>
       <c r="J146" t="inlineStr">
         <is>
           <t>2025-07-16</t>
@@ -5439,10 +7441,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr"/>
-      <c r="H147" t="inlineStr"/>
-      <c r="I147" t="inlineStr"/>
+      <c r="F147" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>-0.21%</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>9.78%</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>12.98%</t>
+        </is>
+      </c>
       <c r="J147" t="inlineStr">
         <is>
           <t>2025-07-16</t>
@@ -5473,10 +7489,24 @@
           <t>利空</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr"/>
-      <c r="H148" t="inlineStr"/>
-      <c r="I148" t="inlineStr"/>
+      <c r="F148" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>1.01%</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>1.69%</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>1.35%</t>
+        </is>
+      </c>
       <c r="J148" t="inlineStr">
         <is>
           <t>2025-07-16</t>
@@ -5507,10 +7537,24 @@
           <t>利空</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr"/>
-      <c r="H149" t="inlineStr"/>
-      <c r="I149" t="inlineStr"/>
+      <c r="F149" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>-2.43%</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>-2.99%</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>-3.46%</t>
+        </is>
+      </c>
       <c r="J149" t="inlineStr">
         <is>
           <t>2025-07-16</t>
@@ -5541,10 +7585,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr"/>
-      <c r="H150" t="inlineStr"/>
-      <c r="I150" t="inlineStr"/>
+      <c r="F150" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>14.06%</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>16.36%</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>17.13%</t>
+        </is>
+      </c>
       <c r="J150" t="inlineStr">
         <is>
           <t>2025-07-16</t>
@@ -5575,10 +7633,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
-      <c r="H151" t="inlineStr"/>
-      <c r="I151" t="inlineStr"/>
+      <c r="F151" t="n">
+        <v>65.54000000000001</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>14.24%</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>9.20%</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>7.11%</t>
+        </is>
+      </c>
       <c r="J151" t="inlineStr">
         <is>
           <t>2025-07-16</t>
@@ -5609,10 +7681,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr"/>
-      <c r="G152" t="inlineStr"/>
-      <c r="H152" t="inlineStr"/>
-      <c r="I152" t="inlineStr"/>
+      <c r="F152" t="n">
+        <v>18.21</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>6.15%</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>-3.79%</t>
+        </is>
+      </c>
       <c r="J152" t="inlineStr">
         <is>
           <t>2025-07-16</t>
@@ -5643,10 +7729,24 @@
           <t>利空</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
-      <c r="H153" t="inlineStr"/>
-      <c r="I153" t="inlineStr"/>
+      <c r="F153" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>-5.09%</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>-7.87%</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>-9.26%</t>
+        </is>
+      </c>
       <c r="J153" t="inlineStr">
         <is>
           <t>2025-07-16</t>
@@ -5677,10 +7777,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
-      <c r="H154" t="inlineStr"/>
-      <c r="I154" t="inlineStr"/>
+      <c r="F154" t="n">
+        <v>87.06</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>1.99%</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>1.67%</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>2.14%</t>
+        </is>
+      </c>
       <c r="J154" t="inlineStr">
         <is>
           <t>2025-07-17</t>
@@ -5711,10 +7825,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
-      <c r="H155" t="inlineStr"/>
-      <c r="I155" t="inlineStr"/>
+      <c r="F155" t="n">
+        <v>325</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.93%</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>1.26%</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>2.23%</t>
+        </is>
+      </c>
       <c r="J155" t="inlineStr">
         <is>
           <t>2025-07-17</t>
@@ -5745,10 +7873,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr"/>
-      <c r="H156" t="inlineStr"/>
-      <c r="I156" t="inlineStr"/>
+      <c r="F156" t="n">
+        <v>265.37</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.05%</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>2.20%</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>4.83%</t>
+        </is>
+      </c>
       <c r="J156" t="inlineStr">
         <is>
           <t>2025-07-17</t>
@@ -5779,10 +7921,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr"/>
-      <c r="H157" t="inlineStr"/>
-      <c r="I157" t="inlineStr"/>
+      <c r="F157" t="n">
+        <v>47.08</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>1.10%</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>1.23%</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>1.32%</t>
+        </is>
+      </c>
       <c r="J157" t="inlineStr">
         <is>
           <t>2025-07-17</t>
@@ -5813,10 +7969,24 @@
           <t>利空</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr"/>
-      <c r="H158" t="inlineStr"/>
-      <c r="I158" t="inlineStr"/>
+      <c r="F158" t="n">
+        <v>33.38</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.12%</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>0.90%</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>-0.78%</t>
+        </is>
+      </c>
       <c r="J158" t="inlineStr">
         <is>
           <t>2025-07-17</t>
@@ -5847,10 +8017,24 @@
           <t>利空</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr"/>
-      <c r="H159" t="inlineStr"/>
-      <c r="I159" t="inlineStr"/>
+      <c r="F159" t="n">
+        <v>14.35</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>-0.42%</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>-0.14%</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>-1.88%</t>
+        </is>
+      </c>
       <c r="J159" t="inlineStr">
         <is>
           <t>2025-07-17</t>
@@ -5881,10 +8065,24 @@
           <t>利空</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr"/>
-      <c r="H160" t="inlineStr"/>
-      <c r="I160" t="inlineStr"/>
+      <c r="F160" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.19%</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>0.65%</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>0.79%</t>
+        </is>
+      </c>
       <c r="J160" t="inlineStr">
         <is>
           <t>2025-07-17</t>
@@ -5915,10 +8113,24 @@
           <t>利空</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr"/>
-      <c r="G161" t="inlineStr"/>
-      <c r="H161" t="inlineStr"/>
-      <c r="I161" t="inlineStr"/>
+      <c r="F161" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>-0.22%</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>-0.11%</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>-0.27%</t>
+        </is>
+      </c>
       <c r="J161" t="inlineStr">
         <is>
           <t>2025-07-17</t>
@@ -5949,10 +8161,24 @@
           <t>利空</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr"/>
-      <c r="G162" t="inlineStr"/>
-      <c r="H162" t="inlineStr"/>
-      <c r="I162" t="inlineStr"/>
+      <c r="F162" t="n">
+        <v>72.75</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>-0.16%</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>0.11%</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>-0.19%</t>
+        </is>
+      </c>
       <c r="J162" t="inlineStr">
         <is>
           <t>2025-07-17</t>
@@ -5983,10 +8209,24 @@
           <t>利空</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr"/>
-      <c r="G163" t="inlineStr"/>
-      <c r="H163" t="inlineStr"/>
-      <c r="I163" t="inlineStr"/>
+      <c r="F163" t="n">
+        <v>25.68</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.51%</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>0.43%</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>1.05%</t>
+        </is>
+      </c>
       <c r="J163" t="inlineStr">
         <is>
           <t>2025-07-17</t>
@@ -6017,10 +8257,24 @@
           <t>利空</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr"/>
-      <c r="G164" t="inlineStr"/>
-      <c r="H164" t="inlineStr"/>
-      <c r="I164" t="inlineStr"/>
+      <c r="F164" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>1.31%</t>
+        </is>
+      </c>
       <c r="J164" t="inlineStr">
         <is>
           <t>2025-07-17</t>
@@ -6051,10 +8305,24 @@
           <t>利空</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr"/>
-      <c r="H165" t="inlineStr"/>
-      <c r="I165" t="inlineStr"/>
+      <c r="F165" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.65%</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>-0.24%</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>9.77%</t>
+        </is>
+      </c>
       <c r="J165" t="inlineStr">
         <is>
           <t>2025-07-17</t>
@@ -6085,10 +8353,24 @@
           <t>利空</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr"/>
-      <c r="G166" t="inlineStr"/>
-      <c r="H166" t="inlineStr"/>
-      <c r="I166" t="inlineStr"/>
+      <c r="F166" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>0.15%</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>0.46%</t>
+        </is>
+      </c>
       <c r="J166" t="inlineStr">
         <is>
           <t>2025-07-17</t>
@@ -6119,10 +8401,24 @@
           <t>利空</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr"/>
-      <c r="G167" t="inlineStr"/>
-      <c r="H167" t="inlineStr"/>
-      <c r="I167" t="inlineStr"/>
+      <c r="F167" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.13%</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>0.50%</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>0.63%</t>
+        </is>
+      </c>
       <c r="J167" t="inlineStr">
         <is>
           <t>2025-07-17</t>
@@ -6153,10 +8449,24 @@
           <t>利空</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr"/>
-      <c r="G168" t="inlineStr"/>
-      <c r="H168" t="inlineStr"/>
-      <c r="I168" t="inlineStr"/>
+      <c r="F168" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.23%</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>1.50%</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>1.50%</t>
+        </is>
+      </c>
       <c r="J168" t="inlineStr">
         <is>
           <t>2025-07-17</t>
@@ -6187,10 +8497,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr"/>
-      <c r="G169" t="inlineStr"/>
-      <c r="H169" t="inlineStr"/>
-      <c r="I169" t="inlineStr"/>
+      <c r="F169" t="n">
+        <v>271</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.03%</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>-0.06%</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>-0.72%</t>
+        </is>
+      </c>
       <c r="J169" t="inlineStr">
         <is>
           <t>2025-07-17</t>
@@ -6221,10 +8545,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr"/>
-      <c r="G170" t="inlineStr"/>
-      <c r="H170" t="inlineStr"/>
-      <c r="I170" t="inlineStr"/>
+      <c r="F170" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.32%</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>-0.13%</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>-0.36%</t>
+        </is>
+      </c>
       <c r="J170" t="inlineStr">
         <is>
           <t>2025-07-17</t>
@@ -6255,10 +8593,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr"/>
-      <c r="G171" t="inlineStr"/>
-      <c r="H171" t="inlineStr"/>
-      <c r="I171" t="inlineStr"/>
+      <c r="F171" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.61%</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>1.91%</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>2.69%</t>
+        </is>
+      </c>
       <c r="J171" t="inlineStr">
         <is>
           <t>2025-07-17</t>
@@ -6289,10 +8641,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr"/>
-      <c r="G172" t="inlineStr"/>
-      <c r="H172" t="inlineStr"/>
-      <c r="I172" t="inlineStr"/>
+      <c r="F172" t="n">
+        <v>18.14</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>-1.27%</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>-3.64%</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>-4.24%</t>
+        </is>
+      </c>
       <c r="J172" t="inlineStr">
         <is>
           <t>2025-07-17</t>
@@ -6323,10 +8689,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr"/>
-      <c r="G173" t="inlineStr"/>
-      <c r="H173" t="inlineStr"/>
-      <c r="I173" t="inlineStr"/>
+      <c r="F173" t="n">
+        <v>28.98</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>1.24%</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>3.31%</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>8.28%</t>
+        </is>
+      </c>
       <c r="J173" t="inlineStr">
         <is>
           <t>2025-07-17</t>
@@ -6357,10 +8737,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr"/>
-      <c r="H174" t="inlineStr"/>
-      <c r="I174" t="inlineStr"/>
+      <c r="F174" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>1.49%</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>1.03%</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>0.36%</t>
+        </is>
+      </c>
       <c r="J174" t="inlineStr">
         <is>
           <t>2025-07-17</t>
@@ -6391,10 +8785,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr"/>
-      <c r="G175" t="inlineStr"/>
-      <c r="H175" t="inlineStr"/>
-      <c r="I175" t="inlineStr"/>
+      <c r="F175" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>-0.27%</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>0.67%</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>1.20%</t>
+        </is>
+      </c>
       <c r="J175" t="inlineStr">
         <is>
           <t>2025-07-17</t>
@@ -6425,10 +8833,24 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr"/>
-      <c r="G176" t="inlineStr"/>
-      <c r="H176" t="inlineStr"/>
-      <c r="I176" t="inlineStr"/>
+      <c r="F176" t="n">
+        <v>87.06</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>1.99%</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>1.67%</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>2.15%</t>
+        </is>
+      </c>
       <c r="J176" t="inlineStr">
         <is>
           <t>2025-07-17</t>
@@ -6459,13 +8881,1431 @@
           <t>利好</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr"/>
-      <c r="G177" t="inlineStr"/>
-      <c r="H177" t="inlineStr"/>
-      <c r="I177" t="inlineStr"/>
+      <c r="F177" t="n">
+        <v>112.9</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>-1.01%</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>-1.07%</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>-1.44%</t>
+        </is>
+      </c>
       <c r="J177" t="inlineStr">
         <is>
           <t>2025-07-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>欧洲科思创工厂火灾导致TDI供应中断，引发全球TDI价格飙升，利好中国TDI生产企业。</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2089170</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>万华化学（600309.SH）</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F178" t="n">
+        <v>55.52</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>7.56%</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>7.10%</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>7.10%</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>欧洲科思创工厂火灾导致TDI供应中断，引发全球TDI价格飙升，利好中国TDI生产企业。</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2089170</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>沧州大化（600230.SH）</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F179" t="n">
+        <v>13.13</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>4.72%</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>11.12%</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>11.12%</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>欧洲科思创工厂火灾导致TDI供应中断，引发全球TDI价格飙升，利好中国TDI生产企业。</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2089170</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>华鲁恒升（600426.SH）</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F180" t="n">
+        <v>21.13</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>5.06%</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>9.84%</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>9.84%</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>市场早盘冲高回落，稀土永磁、锂矿等板块领涨，同时宏观数据显示外资吸收超目标且消费总额有望突破50万亿元。</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2089154</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>华宏科技 (002645.SZ)</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F181" t="n">
+        <v>13.14</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>9.06%</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>19.71%</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>19.71%</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>市场早盘冲高回落，稀土永磁、锂矿等板块领涨，同时宏观数据显示外资吸收超目标且消费总额有望突破50万亿元。</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2089154</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>北方稀土 (600111.SH)</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F182" t="n">
+        <v>30</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>9.87%</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>15.80%</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>15.80%</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>市场早盘冲高回落，稀土永磁、锂矿等板块领涨，同时宏观数据显示外资吸收超目标且消费总额有望突破50万亿元。</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2089154</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>盛新锂能 (002240.SZ)</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F183" t="n">
+        <v>13.16</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>9.50%</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>9.12%</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>9.12%</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>市场早盘冲高回落，稀土永磁、锂矿等板块领涨，同时宏观数据显示外资吸收超目标且消费总额有望突破50万亿元。</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2089154</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>天秦装备 (300922.SZ)</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F184" t="n">
+        <v>27.35</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>11.70%</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>10.64%</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>10.64%</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>市场早盘冲高回落，稀土永磁、锂矿等板块领涨，同时宏观数据显示外资吸收超目标且消费总额有望突破50万亿元。</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2089154</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>延华智能 (002178.SZ)</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F185" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>4.42%</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>0.27%</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>0.27%</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>国产血液净化设备企业在政策扶持下市场份额提升，但集采带来的降价压力促使企业加速全产业链布局以应对利润挤压和市场竞争。</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2089112</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>山外山（688410.SH）</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F186" t="n">
+        <v>14.33</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>-0.42%</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>4.88%</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>4.88%</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>国产血液净化设备企业在政策扶持下市场份额提升，但集采带来的降价压力促使企业加速全产业链布局以应对利润挤压和市场竞争。</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2089112</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>威高血净（603014.SH）</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>利空</t>
+        </is>
+      </c>
+      <c r="F187" t="n">
+        <v>37.42</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>-0.08%</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>0.35%</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>0.35%</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>中融新大、新华联控股、鹏博士和世茂集团面临债券违约、重整、诉讼和退市等财务困境事件。</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2089052</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>鹏博士(600804.SH)</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>利空</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>特朗普政府可能签署行政命令，允许美国401(k)退休计划投资于加密货币、黄金和私募股权等另类资产。</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2089097</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>山东黄金（600547.SH）</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F189" t="n">
+        <v>30.57</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>1.24%</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>1.73%</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>1.73%</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>特朗普政府可能签署行政命令，允许美国401(k)退休计划投资于加密货币、黄金和私募股权等另类资产。</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2089097</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>紫金矿业（601899.SH）</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F190" t="n">
+        <v>19.19</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>1.46%</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>2.71%</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>2.71%</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>上交所举办可控核聚变产业沙龙，推动产业链协同和资本支持，助力中国在该领域的商业化加速。</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2089093</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>中国核电（601985.SH）</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F191" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>-0.11%</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>0.32%</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>0.32%</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>上交所举办可控核聚变产业沙龙，推动产业链协同和资本支持，助力中国在该领域的商业化加速。</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2089093</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>中国核建（601611.SH）</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F192" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>-0.54%</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>2.68%</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>2.68%</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>上交所举办可控核聚变产业沙龙，推动产业链协同和资本支持，助力中国在该领域的商业化加速。</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2089093</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>国光电气（688776.SH）</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F193" t="n">
+        <v>103.09</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>-1.10%</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>-0.83%</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>-0.83%</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>上交所举办可控核聚变产业沙龙，推动产业链协同和资本支持，助力中国在该领域的商业化加速。</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2089093</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>爱科赛博（688719.SH）</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F194" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>1.30%</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>0.53%</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>0.53%</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>上交所举办可控核聚变产业沙龙，推动产业链协同和资本支持，助力中国在该领域的商业化加速。</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2089093</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>西部超导（688112.SH）</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F195" t="n">
+        <v>35</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>-0.49%</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>-1.40%</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>-1.40%</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>高温天气推高电煤需求，煤价上涨，政策支持供给侧改革，利好煤炭行业。</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2089089</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>中国神华（601088.SH）</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F196" t="n">
+        <v>37.24</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.43%</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>1.29%</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>1.29%</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>高温天气推高电煤需求，煤价上涨，政策支持供给侧改革，利好煤炭行业。</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2089089</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>兖矿能源（600188.SH）</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F197" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.57%</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>3.75%</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>3.75%</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>高温天气推高电煤需求，煤价上涨，政策支持供给侧改革，利好煤炭行业。</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2089089</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>陕西煤业（601225.SH）</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F198" t="n">
+        <v>19.08</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.31%</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>2.52%</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>2.52%</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>二季度人身险产品预定利率研究值预计低于2.25%，可能触发预定利率下调50BP，保险公司正备战产品切换，并利好高股息股票。</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2089095</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>中国人寿（601628.SH）</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F199" t="n">
+        <v>39.85</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.95%</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>0.98%</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>0.98%</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>二季度人身险产品预定利率研究值预计低于2.25%，可能触发预定利率下调50BP，保险公司正备战产品切换，并利好高股息股票。</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2089095</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>工商银行（601398.SH）</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F200" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.39%</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>-0.39%</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>-0.39%</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Meta从苹果挖走关键AI人才，包括庞若鸣及其团队成员Mark Lee和Tom Gunter，以加强其超级智能实验室，同时苹果AI战略可能转向外部技术合作伙伴。</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2089064</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>寒武纪（688256.SH）</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F201" t="n">
+        <v>580.55</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.36%</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>1.14%</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>1.14%</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Meta从苹果挖走关键AI人才，包括庞若鸣及其团队成员Mark Lee和Tom Gunter，以加强其超级智能实验室，同时苹果AI战略可能转向外部技术合作伙伴。</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2089064</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>科大讯飞（002230.SZ）</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F202" t="n">
+        <v>47.76</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>-0.21%</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>-0.19%</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>-0.19%</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Meta从苹果挖走关键AI人才，包括庞若鸣及其团队成员Mark Lee和Tom Gunter，以加强其超级智能实验室，同时苹果AI战略可能转向外部技术合作伙伴。</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2089064</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>中科曙光（603019.SH）</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F203" t="n">
+        <v>69.92</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>-0.59%</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>-0.83%</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>-0.83%</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>现货黄金价格突破3400美元/盎司，日内大涨近1.5%，受贸易谈判不确定性、美元走弱和避险情绪升温推动。</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2091779</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>山东黄金（600547.SH）</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr"/>
+      <c r="G204" t="inlineStr"/>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>2025-07-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>现货黄金价格突破3400美元/盎司，日内大涨近1.5%，受贸易谈判不确定性、美元走弱和避险情绪升温推动。</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2091779</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>中金黄金（600489.SH）</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr"/>
+      <c r="G205" t="inlineStr"/>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>2025-07-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>现货黄金价格突破3400美元/盎司，日内大涨近1.5%，受贸易谈判不确定性、美元走弱和避险情绪升温推动。</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2091779</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>紫金矿业（601899.SH）</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr"/>
+      <c r="G206" t="inlineStr"/>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>2025-07-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>安宁股份计划以65.08亿元现金收购经质矿产100%股权，以增强资源储量和业务协同。</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2091764</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>安宁股份（002978.SZ）</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr"/>
+      <c r="G207" t="inlineStr"/>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>2025-07-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>智元机器人收购上纬新材股份引发股价暴涨，机器人行业中标订单并面临分化考验。</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>https://www.cls.cn/detail/2091751</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>上纬新材（688585.SH）</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>利好</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr"/>
+      <c r="G208" t="inlineStr"/>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
